--- a/real.xlsx
+++ b/real.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B356"/>
+  <dimension ref="A1:B353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>118</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>169</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>105</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>148</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>57</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>140</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>160</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>148</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>44</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>137</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>79</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>67</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>107</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>59</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>188</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>102</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>106</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>188</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>74</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>130</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>135</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>193</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>101</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>96.5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>42</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>94</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>146</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>223</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>72</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>163</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>151</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>206</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>153</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>120</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>111</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>47</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>48</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>62</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>195</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>19</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,20 +1342,23 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
+      <c r="B123">
+        <v>78</v>
+      </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>56</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1363,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1371,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1379,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1387,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1395,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>174</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1403,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>151</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1411,7 +1414,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1419,7 +1422,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>182</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1427,7 +1430,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1435,7 +1438,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>36</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1443,7 +1446,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1451,7 +1454,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1459,7 +1462,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>142</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1467,7 +1470,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1475,7 +1478,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1483,7 +1486,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1499,7 +1502,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>146</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1507,7 +1510,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1515,7 +1518,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1523,7 +1526,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1531,7 +1534,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>146</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1539,7 +1542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1547,7 +1550,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1555,7 +1558,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1563,7 +1566,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1571,7 +1574,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>83</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1579,7 +1582,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1587,7 +1590,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1595,7 +1598,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1603,7 +1606,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1611,7 +1614,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>36</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1619,7 +1622,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1627,7 +1630,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1635,7 +1638,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>129</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1643,7 +1646,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1651,7 +1654,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>136</v>
+        <v>65</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1659,7 +1662,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>135</v>
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1667,7 +1670,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>76</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1675,7 +1678,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1683,7 +1686,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1691,7 +1694,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1699,7 +1702,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1707,7 +1710,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1715,7 +1718,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1723,7 +1726,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>85</v>
+        <v>151</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1731,7 +1734,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1739,7 +1742,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>64</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1747,7 +1750,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1755,7 +1758,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>115</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1763,7 +1766,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1771,7 +1774,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1779,7 +1782,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1787,7 +1790,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1795,7 +1798,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1803,7 +1806,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1811,7 +1814,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1819,7 +1822,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1827,7 +1830,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1835,7 +1838,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1843,7 +1846,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1851,7 +1854,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1859,7 +1862,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1867,7 +1870,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1875,7 +1878,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1883,7 +1886,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>108</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1891,7 +1894,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1899,7 +1902,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>33</v>
+        <v>131</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1907,7 +1910,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>73</v>
+        <v>158</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1915,7 +1918,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1923,7 +1926,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>59</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1931,7 +1934,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>74</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1939,7 +1942,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1947,7 +1950,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>158</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1955,7 +1958,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1963,7 +1966,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1971,7 +1974,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>166</v>
+        <v>102</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1979,7 +1982,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1987,7 +1990,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -1995,7 +1998,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2003,7 +2006,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2011,7 +2014,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>200</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2019,7 +2022,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2027,7 +2030,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>159</v>
+        <v>26</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2035,7 +2038,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>119</v>
+        <v>54</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2043,7 +2046,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2051,7 +2054,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>296</v>
+        <v>119</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2059,7 +2062,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>152</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2067,7 +2070,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2075,7 +2078,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2083,7 +2086,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>180</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2091,7 +2094,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2099,7 +2102,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2107,7 +2110,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2115,7 +2118,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2123,7 +2126,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2131,7 +2134,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2139,7 +2142,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2147,7 +2150,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>80</v>
+        <v>137</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2155,7 +2158,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2163,7 +2166,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2171,7 +2174,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2179,7 +2182,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2187,7 +2190,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>137</v>
+        <v>197</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2195,7 +2198,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2203,7 +2206,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2211,7 +2214,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2219,7 +2222,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>68</v>
+        <v>218</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2227,7 +2230,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2235,7 +2238,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2243,7 +2246,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2251,7 +2254,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2259,7 +2262,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>218</v>
+        <v>128</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2267,7 +2270,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2275,7 +2278,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>81</v>
+        <v>184</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2283,7 +2286,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2291,7 +2294,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>102</v>
+        <v>141</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2299,7 +2302,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2307,7 +2310,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>163</v>
+        <v>84</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2315,7 +2318,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>184</v>
+        <v>98</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2323,7 +2326,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2331,7 +2334,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2339,7 +2342,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2347,7 +2350,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2355,7 +2358,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2363,7 +2366,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2371,7 +2374,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2379,7 +2382,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>47</v>
+        <v>129</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2387,7 +2390,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2395,7 +2398,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>122</v>
+        <v>44</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2403,7 +2406,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2411,7 +2414,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2419,7 +2422,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2427,7 +2430,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2435,7 +2438,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2443,7 +2446,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2451,7 +2454,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2459,7 +2462,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>136</v>
+        <v>42</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2467,7 +2470,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2475,7 +2478,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>124</v>
+        <v>64</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2483,7 +2486,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2491,7 +2494,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2499,7 +2502,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2507,7 +2510,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2515,7 +2518,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2523,7 +2526,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>78</v>
+        <v>198</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2531,7 +2534,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2539,7 +2542,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2547,7 +2550,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>198</v>
+        <v>166</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2555,20 +2558,23 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
+      <c r="B275">
+        <v>62</v>
+      </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2576,7 +2582,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2584,7 +2590,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2592,7 +2598,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>146</v>
+        <v>65</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2600,7 +2606,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2608,20 +2614,23 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
+      <c r="B282">
+        <v>46</v>
+      </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2629,7 +2638,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2637,7 +2646,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2645,7 +2654,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2653,7 +2662,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2661,7 +2670,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>69</v>
+        <v>155</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2669,7 +2678,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>59</v>
+        <v>148</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2677,7 +2686,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2685,7 +2694,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>155</v>
+        <v>98</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2693,7 +2702,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2701,7 +2710,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2709,7 +2718,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>98</v>
+        <v>32</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2717,7 +2726,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>167</v>
+        <v>66</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2725,7 +2734,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2733,7 +2742,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2741,7 +2750,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2749,7 +2758,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>129</v>
+        <v>61</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2757,7 +2766,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2765,7 +2774,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>56</v>
+        <v>140</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2773,7 +2782,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>61</v>
+        <v>192</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2781,7 +2790,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>26</v>
+        <v>126</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2789,7 +2798,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>140</v>
+        <v>83</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2797,7 +2806,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2805,7 +2814,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2813,7 +2822,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2821,7 +2830,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>114</v>
+        <v>185</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2829,7 +2838,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2837,7 +2846,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2845,7 +2854,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2853,7 +2862,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>124</v>
+        <v>38</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2861,7 +2870,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2869,7 +2878,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>140</v>
+        <v>178</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2877,7 +2886,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2885,7 +2894,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2893,7 +2902,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>178</v>
+        <v>108</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2901,7 +2910,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2909,7 +2918,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2917,7 +2926,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2925,7 +2934,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2933,7 +2942,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2941,7 +2950,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2949,7 +2958,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2957,7 +2966,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2965,7 +2974,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>54</v>
+        <v>157</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2973,7 +2982,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2981,7 +2990,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -2989,7 +2998,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -2997,7 +3006,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3005,7 +3014,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3013,7 +3022,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>160</v>
+        <v>25</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3021,7 +3030,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3029,7 +3038,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3037,7 +3046,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>25</v>
+        <v>167</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3045,7 +3054,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3053,7 +3062,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>108</v>
+        <v>259</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3061,7 +3070,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>167</v>
+        <v>107</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3069,7 +3078,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>125</v>
+        <v>190</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3077,7 +3086,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>259</v>
+        <v>112</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3085,7 +3094,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3093,7 +3102,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>190</v>
+        <v>124</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3101,7 +3110,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3109,7 +3118,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3117,7 +3126,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>124</v>
+        <v>35</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3125,7 +3134,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3133,7 +3142,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>62</v>
+        <v>212</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3141,7 +3150,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3149,7 +3158,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3157,7 +3166,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>212</v>
+        <v>88</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3165,7 +3174,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3173,7 +3182,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>138</v>
+        <v>59</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3181,30 +3190,6 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="1">
-        <v>352</v>
-      </c>
-      <c r="B354">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" s="1">
-        <v>353</v>
-      </c>
-      <c r="B355">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="B356">
         <v>125</v>
       </c>
     </row>
